--- a/iteration3/job_descriptions_ranks_final.xlsx
+++ b/iteration3/job_descriptions_ranks_final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -9453,10 +9453,10 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2800"/>
+              <a:rPr lang="en-US" sz="4000"/>
               <a:t>LinkedIn Database Ranks Histogram</a:t>
             </a:r>
-            <a:endParaRPr lang="he-IL" sz="2800"/>
+            <a:endParaRPr lang="he-IL" sz="4000"/>
           </a:p>
         </cx:rich>
       </cx:tx>
@@ -9465,6 +9465,16 @@
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{506F24E4-8AE4-487A-975C-75DF51612F49}">
           <cx:dataLabels>
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3200"/>
+                </a:pPr>
+                <a:endParaRPr lang="he-IL" sz="3200"/>
+              </a:p>
+            </cx:txPr>
             <cx:visibility seriesName="0" categoryName="0" value="1"/>
             <cx:dataLabel idx="2">
               <cx:txPr>
@@ -9472,10 +9482,10 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1000" baseline="0"/>
+                    <a:defRPr sz="3200" baseline="0"/>
                   </a:pPr>
                   <a:r>
-                    <a:rPr lang="he-IL" sz="1000" baseline="0"/>
+                    <a:rPr lang="he-IL" sz="3200" baseline="0"/>
                     <a:t>69</a:t>
                   </a:r>
                 </a:p>
@@ -9500,7 +9510,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:rPr lang="en-US" sz="3200"/>
                   <a:t>Rank ranges</a:t>
                 </a:r>
               </a:p>
@@ -9508,6 +9518,16 @@
           </cx:tx>
         </cx:title>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL" sz="1400"/>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
@@ -9521,16 +9541,26 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:rPr lang="en-US" sz="3200"/>
                   <a:t>Count</a:t>
                 </a:r>
-                <a:endParaRPr lang="he-IL" sz="1400"/>
+                <a:endParaRPr lang="he-IL" sz="3200"/>
               </a:p>
             </cx:rich>
           </cx:tx>
         </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL" sz="1200"/>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
@@ -10032,10 +10062,10 @@
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>395</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>402</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" Requires="cx">
@@ -10384,17 +10414,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="AA379" sqref="AA379"/>
+    <sheetView tabSelected="1" topLeftCell="A339" zoomScale="44" workbookViewId="0">
+      <selection activeCell="AJ375" sqref="AJ375"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="19.3984375" customWidth="1"/>
+    <col min="2" max="2" width="18.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10402,7 +10432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10410,7 +10440,7 @@
         <v>1.571</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>313</v>
       </c>
@@ -10418,7 +10448,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>266</v>
       </c>
@@ -10426,7 +10456,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>338</v>
       </c>
@@ -10434,7 +10464,7 @@
         <v>1.4139999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>352</v>
       </c>
@@ -10442,7 +10472,7 @@
         <v>1.409</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -10450,7 +10480,7 @@
         <v>1.407</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>282</v>
       </c>
@@ -10458,7 +10488,7 @@
         <v>1.407</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -10466,7 +10496,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>208</v>
       </c>
@@ -10474,7 +10504,7 @@
         <v>1.381</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>140</v>
       </c>
@@ -10482,7 +10512,7 @@
         <v>1.379</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -10490,7 +10520,7 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -10498,7 +10528,7 @@
         <v>1.3640000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>165</v>
       </c>
@@ -10506,7 +10536,7 @@
         <v>1.361</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -10514,7 +10544,7 @@
         <v>1.357</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>182</v>
       </c>
@@ -10522,7 +10552,7 @@
         <v>1.357</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -10530,7 +10560,7 @@
         <v>1.355</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -10538,7 +10568,7 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -10546,7 +10576,7 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>193</v>
       </c>
@@ -10554,7 +10584,7 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>203</v>
       </c>
@@ -10562,7 +10592,7 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>211</v>
       </c>
@@ -10570,7 +10600,7 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>276</v>
       </c>
@@ -10578,7 +10608,7 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -10586,7 +10616,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -10594,7 +10624,7 @@
         <v>1.3180000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>335</v>
       </c>
@@ -10602,7 +10632,7 @@
         <v>1.3180000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -10610,7 +10640,7 @@
         <v>1.3160000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>270</v>
       </c>
@@ -10618,7 +10648,7 @@
         <v>1.3160000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>261</v>
       </c>
@@ -10626,7 +10656,7 @@
         <v>1.3120000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>294</v>
       </c>
@@ -10634,7 +10664,7 @@
         <v>1.3080000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>348</v>
       </c>
@@ -10642,7 +10672,7 @@
         <v>1.3080000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -10650,7 +10680,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -10658,7 +10688,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>177</v>
       </c>
@@ -10666,7 +10696,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>202</v>
       </c>
@@ -10674,7 +10704,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -10682,7 +10712,7 @@
         <v>1.294</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -10690,7 +10720,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -10698,7 +10728,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -10706,7 +10736,7 @@
         <v>1.286</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -10714,7 +10744,7 @@
         <v>1.286</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -10722,7 +10752,7 @@
         <v>1.286</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>296</v>
       </c>
@@ -10730,7 +10760,7 @@
         <v>1.286</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>297</v>
       </c>
@@ -10738,7 +10768,7 @@
         <v>1.286</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -10746,7 +10776,7 @@
         <v>1.286</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>351</v>
       </c>
@@ -10754,7 +10784,7 @@
         <v>1.286</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -10762,7 +10792,7 @@
         <v>1.278</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -10770,7 +10800,7 @@
         <v>1.278</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -10778,7 +10808,7 @@
         <v>1.2729999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>310</v>
       </c>
@@ -10786,7 +10816,7 @@
         <v>1.2729999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>334</v>
       </c>
@@ -10794,7 +10824,7 @@
         <v>1.2729999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -10802,7 +10832,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>113</v>
       </c>
@@ -10810,7 +10840,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>186</v>
       </c>
@@ -10818,7 +10848,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>307</v>
       </c>
@@ -10826,7 +10856,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>35</v>
       </c>
@@ -10834,7 +10864,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>324</v>
       </c>
@@ -10842,7 +10872,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>307</v>
       </c>
@@ -10850,7 +10880,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>324</v>
       </c>
@@ -10858,7 +10888,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>35</v>
       </c>
@@ -10866,7 +10896,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>324</v>
       </c>
@@ -10874,7 +10904,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -10882,7 +10912,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>324</v>
       </c>
@@ -10890,7 +10920,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>324</v>
       </c>
@@ -10898,7 +10928,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -10906,7 +10936,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>324</v>
       </c>
@@ -10914,7 +10944,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>107</v>
       </c>
@@ -10922,7 +10952,7 @@
         <v>1.2629999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>135</v>
       </c>
@@ -10930,7 +10960,7 @@
         <v>1.2629999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>167</v>
       </c>
@@ -10938,7 +10968,7 @@
         <v>1.2629999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>332</v>
       </c>
@@ -10946,7 +10976,7 @@
         <v>1.2629999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>316</v>
       </c>
@@ -10954,7 +10984,7 @@
         <v>1.258</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -10962,7 +10992,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -10970,7 +11000,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -10978,7 +11008,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>47</v>
       </c>
@@ -10986,7 +11016,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>99</v>
       </c>
@@ -10994,7 +11024,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>199</v>
       </c>
@@ -11002,7 +11032,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>219</v>
       </c>
@@ -11010,7 +11040,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>284</v>
       </c>
@@ -11018,7 +11048,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>298</v>
       </c>
@@ -11026,7 +11056,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>47</v>
       </c>
@@ -11034,7 +11064,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>47</v>
       </c>
@@ -11042,7 +11072,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>260</v>
       </c>
@@ -11050,7 +11080,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>349</v>
       </c>
@@ -11058,7 +11088,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>117</v>
       </c>
@@ -11066,7 +11096,7 @@
         <v>1.238</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>191</v>
       </c>
@@ -11074,7 +11104,7 @@
         <v>1.238</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>256</v>
       </c>
@@ -11082,7 +11112,7 @@
         <v>1.2350000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>278</v>
       </c>
@@ -11090,7 +11120,7 @@
         <v>1.2350000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>67</v>
       </c>
@@ -11098,7 +11128,7 @@
         <v>1.2310000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>69</v>
       </c>
@@ -11106,7 +11136,7 @@
         <v>1.2310000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>131</v>
       </c>
@@ -11114,7 +11144,7 @@
         <v>1.2310000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>141</v>
       </c>
@@ -11122,7 +11152,7 @@
         <v>1.2310000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>166</v>
       </c>
@@ -11130,7 +11160,7 @@
         <v>1.2310000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>327</v>
       </c>
@@ -11138,7 +11168,7 @@
         <v>1.2310000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -11146,7 +11176,7 @@
         <v>1.2270000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>185</v>
       </c>
@@ -11154,7 +11184,7 @@
         <v>1.2270000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -11162,7 +11192,7 @@
         <v>1.2250000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>158</v>
       </c>
@@ -11170,7 +11200,7 @@
         <v>1.222</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>240</v>
       </c>
@@ -11178,7 +11208,7 @@
         <v>1.222</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -11186,7 +11216,7 @@
         <v>1.2170000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>126</v>
       </c>
@@ -11194,7 +11224,7 @@
         <v>1.2170000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>162</v>
       </c>
@@ -11202,7 +11232,7 @@
         <v>1.2170000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>224</v>
       </c>
@@ -11210,7 +11240,7 @@
         <v>1.2170000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>301</v>
       </c>
@@ -11218,7 +11248,7 @@
         <v>1.2170000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>36</v>
       </c>
@@ -11226,7 +11256,7 @@
         <v>1.214</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>78</v>
       </c>
@@ -11234,7 +11264,7 @@
         <v>1.214</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>322</v>
       </c>
@@ -11242,7 +11272,7 @@
         <v>1.214</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>322</v>
       </c>
@@ -11250,7 +11280,7 @@
         <v>1.214</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>322</v>
       </c>
@@ -11258,7 +11288,7 @@
         <v>1.214</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>322</v>
       </c>
@@ -11266,7 +11296,7 @@
         <v>1.214</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>163</v>
       </c>
@@ -11274,7 +11304,7 @@
         <v>1.208</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>151</v>
       </c>
@@ -11282,7 +11312,7 @@
         <v>1.206</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>53</v>
       </c>
@@ -11290,7 +11320,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -11298,7 +11328,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>134</v>
       </c>
@@ -11306,7 +11336,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>160</v>
       </c>
@@ -11314,7 +11344,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>174</v>
       </c>
@@ -11322,7 +11352,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>198</v>
       </c>
@@ -11330,7 +11360,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>214</v>
       </c>
@@ -11338,7 +11368,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>245</v>
       </c>
@@ -11346,7 +11376,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>268</v>
       </c>
@@ -11354,7 +11384,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>312</v>
       </c>
@@ -11362,7 +11392,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>346</v>
       </c>
@@ -11370,7 +11400,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>119</v>
       </c>
@@ -11378,7 +11408,7 @@
         <v>1.194</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>59</v>
       </c>
@@ -11386,7 +11416,7 @@
         <v>1.1919999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>72</v>
       </c>
@@ -11394,7 +11424,7 @@
         <v>1.1919999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>23</v>
       </c>
@@ -11402,7 +11432,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -11410,7 +11440,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>336</v>
       </c>
@@ -11418,7 +11448,7 @@
         <v>1.1890000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>65</v>
       </c>
@@ -11426,7 +11456,7 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>170</v>
       </c>
@@ -11434,7 +11464,7 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>200</v>
       </c>
@@ -11442,7 +11472,7 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>220</v>
       </c>
@@ -11450,7 +11480,7 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>234</v>
       </c>
@@ -11458,7 +11488,7 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>329</v>
       </c>
@@ -11466,7 +11496,7 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>329</v>
       </c>
@@ -11474,7 +11504,7 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>303</v>
       </c>
@@ -11482,7 +11512,7 @@
         <v>1.1850000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>303</v>
       </c>
@@ -11490,7 +11520,7 @@
         <v>1.1850000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>303</v>
       </c>
@@ -11498,7 +11528,7 @@
         <v>1.1850000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>303</v>
       </c>
@@ -11506,7 +11536,7 @@
         <v>1.1850000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>303</v>
       </c>
@@ -11514,7 +11544,7 @@
         <v>1.1850000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>26</v>
       </c>
@@ -11522,7 +11552,7 @@
         <v>1.1839999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>192</v>
       </c>
@@ -11530,7 +11560,7 @@
         <v>1.1839999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>41</v>
       </c>
@@ -11538,7 +11568,7 @@
         <v>1.1819999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -11546,7 +11576,7 @@
         <v>1.1759999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>61</v>
       </c>
@@ -11554,7 +11584,7 @@
         <v>1.1759999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>206</v>
       </c>
@@ -11562,7 +11592,7 @@
         <v>1.1759999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>239</v>
       </c>
@@ -11570,7 +11600,7 @@
         <v>1.1759999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>249</v>
       </c>
@@ -11578,7 +11608,7 @@
         <v>1.1759999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>309</v>
       </c>
@@ -11586,7 +11616,7 @@
         <v>1.1759999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>317</v>
       </c>
@@ -11594,7 +11624,7 @@
         <v>1.1759999999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>123</v>
       </c>
@@ -11602,7 +11632,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>265</v>
       </c>
@@ -11610,7 +11640,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>341</v>
       </c>
@@ -11618,7 +11648,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>231</v>
       </c>
@@ -11626,7 +11656,7 @@
         <v>1.1719999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>243</v>
       </c>
@@ -11634,7 +11664,7 @@
         <v>1.1719999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>5</v>
       </c>
@@ -11642,7 +11672,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>15</v>
       </c>
@@ -11650,7 +11680,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>66</v>
       </c>
@@ -11658,7 +11688,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>102</v>
       </c>
@@ -11666,7 +11696,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>145</v>
       </c>
@@ -11674,7 +11704,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>223</v>
       </c>
@@ -11682,7 +11712,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>259</v>
       </c>
@@ -11690,7 +11720,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>286</v>
       </c>
@@ -11698,7 +11728,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>340</v>
       </c>
@@ -11706,7 +11736,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>251</v>
       </c>
@@ -11714,7 +11744,7 @@
         <v>1.163</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>29</v>
       </c>
@@ -11722,7 +11752,7 @@
         <v>1.161</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>139</v>
       </c>
@@ -11730,7 +11760,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -11738,7 +11768,7 @@
         <v>1.159</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>34</v>
       </c>
@@ -11746,7 +11776,7 @@
         <v>1.1579999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>263</v>
       </c>
@@ -11754,7 +11784,7 @@
         <v>1.1579999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>331</v>
       </c>
@@ -11762,7 +11792,7 @@
         <v>1.1579999999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>331</v>
       </c>
@@ -11770,7 +11800,7 @@
         <v>1.1579999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>196</v>
       </c>
@@ -11778,7 +11808,7 @@
         <v>1.1559999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>225</v>
       </c>
@@ -11786,7 +11816,7 @@
         <v>1.1559999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>97</v>
       </c>
@@ -11794,7 +11824,7 @@
         <v>1.1539999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>136</v>
       </c>
@@ -11802,7 +11832,7 @@
         <v>1.1539999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>235</v>
       </c>
@@ -11810,7 +11840,7 @@
         <v>1.1539999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>237</v>
       </c>
@@ -11818,7 +11848,7 @@
         <v>1.1539999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>339</v>
       </c>
@@ -11826,7 +11856,7 @@
         <v>1.1539999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>45</v>
       </c>
@@ -11834,7 +11864,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>87</v>
       </c>
@@ -11842,7 +11872,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>45</v>
       </c>
@@ -11850,7 +11880,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>45</v>
       </c>
@@ -11858,7 +11888,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>318</v>
       </c>
@@ -11866,7 +11896,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>45</v>
       </c>
@@ -11874,7 +11904,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>17</v>
       </c>
@@ -11882,7 +11912,7 @@
         <v>1.1479999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>306</v>
       </c>
@@ -11890,7 +11920,7 @@
         <v>1.1459999999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>42</v>
       </c>
@@ -11898,7 +11928,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>52</v>
       </c>
@@ -11906,7 +11936,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>60</v>
       </c>
@@ -11914,7 +11944,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>73</v>
       </c>
@@ -11922,7 +11952,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>82</v>
       </c>
@@ -11930,7 +11960,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>84</v>
       </c>
@@ -11938,7 +11968,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>147</v>
       </c>
@@ -11946,7 +11976,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>175</v>
       </c>
@@ -11954,7 +11984,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -11962,7 +11992,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>228</v>
       </c>
@@ -11970,7 +12000,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>42</v>
       </c>
@@ -11978,7 +12008,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>305</v>
       </c>
@@ -11986,7 +12016,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>42</v>
       </c>
@@ -11994,7 +12024,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>42</v>
       </c>
@@ -12002,7 +12032,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>305</v>
       </c>
@@ -12010,7 +12040,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>42</v>
       </c>
@@ -12018,7 +12048,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>305</v>
       </c>
@@ -12026,7 +12056,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>305</v>
       </c>
@@ -12034,7 +12064,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>343</v>
       </c>
@@ -12042,7 +12072,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>305</v>
       </c>
@@ -12050,7 +12080,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>305</v>
       </c>
@@ -12058,7 +12088,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>106</v>
       </c>
@@ -12066,7 +12096,7 @@
         <v>1.1379999999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>127</v>
       </c>
@@ -12074,7 +12104,7 @@
         <v>1.1359999999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>133</v>
       </c>
@@ -12082,7 +12112,7 @@
         <v>1.1359999999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -12090,7 +12120,7 @@
         <v>1.1359999999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>221</v>
       </c>
@@ -12098,7 +12128,7 @@
         <v>1.1359999999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>269</v>
       </c>
@@ -12106,7 +12136,7 @@
         <v>1.1359999999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>83</v>
       </c>
@@ -12114,7 +12144,7 @@
         <v>1.133</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>101</v>
       </c>
@@ -12122,7 +12152,7 @@
         <v>1.133</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>103</v>
       </c>
@@ -12130,7 +12160,7 @@
         <v>1.133</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>244</v>
       </c>
@@ -12138,7 +12168,7 @@
         <v>1.133</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>274</v>
       </c>
@@ -12146,7 +12176,7 @@
         <v>1.133</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>288</v>
       </c>
@@ -12154,7 +12184,7 @@
         <v>1.133</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>304</v>
       </c>
@@ -12162,7 +12192,7 @@
         <v>1.133</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>304</v>
       </c>
@@ -12170,7 +12200,7 @@
         <v>1.133</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>137</v>
       </c>
@@ -12178,7 +12208,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>213</v>
       </c>
@@ -12186,7 +12216,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>91</v>
       </c>
@@ -12194,7 +12224,7 @@
         <v>1.1279999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>12</v>
       </c>
@@ -12202,7 +12232,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>183</v>
       </c>
@@ -12210,7 +12240,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>189</v>
       </c>
@@ -12218,7 +12248,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>197</v>
       </c>
@@ -12226,7 +12256,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -12234,7 +12264,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>275</v>
       </c>
@@ -12242,7 +12272,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>279</v>
       </c>
@@ -12250,7 +12280,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>287</v>
       </c>
@@ -12258,7 +12288,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>16</v>
       </c>
@@ -12266,7 +12296,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>37</v>
       </c>
@@ -12274,7 +12304,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>146</v>
       </c>
@@ -12282,7 +12312,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>157</v>
       </c>
@@ -12290,7 +12320,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>146</v>
       </c>
@@ -12298,7 +12328,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>299</v>
       </c>
@@ -12306,7 +12336,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>345</v>
       </c>
@@ -12314,7 +12344,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>345</v>
       </c>
@@ -12322,7 +12352,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>68</v>
       </c>
@@ -12330,7 +12360,7 @@
         <v>1.1180000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>176</v>
       </c>
@@ -12338,7 +12368,7 @@
         <v>1.1180000000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>80</v>
       </c>
@@ -12346,7 +12376,7 @@
         <v>1.1160000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>128</v>
       </c>
@@ -12354,7 +12384,7 @@
         <v>1.115</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>222</v>
       </c>
@@ -12362,7 +12392,7 @@
         <v>1.115</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>277</v>
       </c>
@@ -12370,7 +12400,7 @@
         <v>1.115</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>18</v>
       </c>
@@ -12378,7 +12408,7 @@
         <v>1.1140000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>19</v>
       </c>
@@ -12386,7 +12416,7 @@
         <v>1.1140000000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>105</v>
       </c>
@@ -12394,7 +12424,7 @@
         <v>1.1140000000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>201</v>
       </c>
@@ -12402,7 +12432,7 @@
         <v>1.1140000000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>323</v>
       </c>
@@ -12410,7 +12440,7 @@
         <v>1.1140000000000001</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>19</v>
       </c>
@@ -12418,7 +12448,7 @@
         <v>1.1140000000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>95</v>
       </c>
@@ -12426,7 +12456,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>190</v>
       </c>
@@ -12434,7 +12464,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>271</v>
       </c>
@@ -12442,7 +12472,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>320</v>
       </c>
@@ -12450,7 +12480,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>337</v>
       </c>
@@ -12458,7 +12488,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>347</v>
       </c>
@@ -12466,7 +12496,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>320</v>
       </c>
@@ -12474,7 +12504,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>215</v>
       </c>
@@ -12482,7 +12512,7 @@
         <v>1.1060000000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>169</v>
       </c>
@@ -12490,7 +12520,7 @@
         <v>1.105</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>30</v>
       </c>
@@ -12498,7 +12528,7 @@
         <v>1.103</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>31</v>
       </c>
@@ -12506,7 +12536,7 @@
         <v>1.103</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>51</v>
       </c>
@@ -12514,7 +12544,7 @@
         <v>1.103</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>30</v>
       </c>
@@ -12522,7 +12552,7 @@
         <v>1.103</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>44</v>
       </c>
@@ -12530,7 +12560,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>109</v>
       </c>
@@ -12538,7 +12568,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>138</v>
       </c>
@@ -12546,7 +12576,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>194</v>
       </c>
@@ -12554,7 +12584,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>216</v>
       </c>
@@ -12562,7 +12592,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>250</v>
       </c>
@@ -12570,7 +12600,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>285</v>
       </c>
@@ -12578,7 +12608,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>129</v>
       </c>
@@ -12586,7 +12616,7 @@
         <v>1.097</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>246</v>
       </c>
@@ -12594,7 +12624,7 @@
         <v>1.097</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>293</v>
       </c>
@@ -12602,7 +12632,7 @@
         <v>1.097</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>218</v>
       </c>
@@ -12610,7 +12640,7 @@
         <v>1.095</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>115</v>
       </c>
@@ -12618,7 +12648,7 @@
         <v>1.0940000000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>161</v>
       </c>
@@ -12626,7 +12656,7 @@
         <v>1.0940000000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>108</v>
       </c>
@@ -12634,7 +12664,7 @@
         <v>1.091</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>132</v>
       </c>
@@ -12642,7 +12672,7 @@
         <v>1.091</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>242</v>
       </c>
@@ -12650,7 +12680,7 @@
         <v>1.091</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>315</v>
       </c>
@@ -12658,7 +12688,7 @@
         <v>1.091</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>153</v>
       </c>
@@ -12666,7 +12696,7 @@
         <v>1.087</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>257</v>
       </c>
@@ -12674,7 +12704,7 @@
         <v>1.087</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>262</v>
       </c>
@@ -12682,7 +12712,7 @@
         <v>1.087</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>273</v>
       </c>
@@ -12690,7 +12720,7 @@
         <v>1.087</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>25</v>
       </c>
@@ -12698,7 +12728,7 @@
         <v>1.0860000000000001</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>114</v>
       </c>
@@ -12706,7 +12736,7 @@
         <v>1.0860000000000001</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>227</v>
       </c>
@@ -12714,7 +12744,7 @@
         <v>1.0860000000000001</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>71</v>
       </c>
@@ -12722,7 +12752,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>120</v>
       </c>
@@ -12730,7 +12760,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>122</v>
       </c>
@@ -12738,7 +12768,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>168</v>
       </c>
@@ -12746,7 +12776,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>252</v>
       </c>
@@ -12754,7 +12784,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>255</v>
       </c>
@@ -12762,7 +12792,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>258</v>
       </c>
@@ -12770,7 +12800,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>280</v>
       </c>
@@ -12778,7 +12808,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>233</v>
       </c>
@@ -12786,7 +12816,7 @@
         <v>1.081</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>63</v>
       </c>
@@ -12794,7 +12824,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>172</v>
       </c>
@@ -12802,7 +12832,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>264</v>
       </c>
@@ -12810,7 +12840,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>330</v>
       </c>
@@ -12818,7 +12848,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>164</v>
       </c>
@@ -12826,7 +12856,7 @@
         <v>1.079</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>179</v>
       </c>
@@ -12834,7 +12864,7 @@
         <v>1.077</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>247</v>
       </c>
@@ -12842,7 +12872,7 @@
         <v>1.077</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>272</v>
       </c>
@@ -12850,7 +12880,7 @@
         <v>1.077</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>289</v>
       </c>
@@ -12858,7 +12888,7 @@
         <v>1.077</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>344</v>
       </c>
@@ -12866,7 +12896,7 @@
         <v>1.077</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>155</v>
       </c>
@@ -12874,7 +12904,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>150</v>
       </c>
@@ -12882,7 +12912,7 @@
         <v>1.073</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>49</v>
       </c>
@@ -12890,7 +12920,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>33</v>
       </c>
@@ -12898,7 +12928,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>118</v>
       </c>
@@ -12906,7 +12936,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>90</v>
       </c>
@@ -12914,7 +12944,7 @@
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>156</v>
       </c>
@@ -12922,7 +12952,7 @@
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>226</v>
       </c>
@@ -12930,7 +12960,7 @@
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>226</v>
       </c>
@@ -12938,7 +12968,7 @@
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>81</v>
       </c>
@@ -12946,7 +12976,7 @@
         <v>1.0649999999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>70</v>
       </c>
@@ -12954,7 +12984,7 @@
         <v>1.0620000000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>93</v>
       </c>
@@ -12962,7 +12992,7 @@
         <v>1.0609999999999999</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>159</v>
       </c>
@@ -12970,7 +13000,7 @@
         <v>1.0609999999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>210</v>
       </c>
@@ -12978,7 +13008,7 @@
         <v>1.0609999999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>22</v>
       </c>
@@ -12986,7 +13016,7 @@
         <v>1.0589999999999999</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>173</v>
       </c>
@@ -12994,7 +13024,7 @@
         <v>1.0589999999999999</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>181</v>
       </c>
@@ -13002,7 +13032,7 @@
         <v>1.0589999999999999</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>291</v>
       </c>
@@ -13010,7 +13040,7 @@
         <v>1.0589999999999999</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>326</v>
       </c>
@@ -13018,7 +13048,7 @@
         <v>1.0569999999999999</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>27</v>
       </c>
@@ -13026,7 +13056,7 @@
         <v>1.056</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>88</v>
       </c>
@@ -13034,7 +13064,7 @@
         <v>1.056</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>96</v>
       </c>
@@ -13042,7 +13072,7 @@
         <v>1.056</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>98</v>
       </c>
@@ -13050,7 +13080,7 @@
         <v>1.054</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>48</v>
       </c>
@@ -13058,7 +13088,7 @@
         <v>1.0529999999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>207</v>
       </c>
@@ -13066,7 +13096,7 @@
         <v>1.0529999999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>290</v>
       </c>
@@ -13074,7 +13104,7 @@
         <v>1.0529999999999999</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>333</v>
       </c>
@@ -13082,7 +13112,7 @@
         <v>1.0529999999999999</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>40</v>
       </c>
@@ -13090,7 +13120,7 @@
         <v>1.0509999999999999</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>10</v>
       </c>
@@ -13098,7 +13128,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>142</v>
       </c>
@@ -13106,7 +13136,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>319</v>
       </c>
@@ -13114,7 +13144,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>10</v>
       </c>
@@ -13122,7 +13152,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>10</v>
       </c>
@@ -13130,7 +13160,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>10</v>
       </c>
@@ -13138,7 +13168,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>21</v>
       </c>
@@ -13146,7 +13176,7 @@
         <v>1.048</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>85</v>
       </c>
@@ -13154,7 +13184,7 @@
         <v>1.048</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>217</v>
       </c>
@@ -13162,7 +13192,7 @@
         <v>1.048</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>292</v>
       </c>
@@ -13170,7 +13200,7 @@
         <v>1.048</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>314</v>
       </c>
@@ -13178,7 +13208,7 @@
         <v>1.048</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>39</v>
       </c>
@@ -13186,7 +13216,7 @@
         <v>1.0469999999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>308</v>
       </c>
@@ -13194,7 +13224,7 @@
         <v>1.0469999999999999</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>204</v>
       </c>
@@ -13202,7 +13232,7 @@
         <v>1.0449999999999999</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>171</v>
       </c>
@@ -13210,7 +13240,7 @@
         <v>1.0429999999999999</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>236</v>
       </c>
@@ -13218,7 +13248,7 @@
         <v>1.0429999999999999</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>253</v>
       </c>
@@ -13226,7 +13256,7 @@
         <v>1.0429999999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>254</v>
       </c>
@@ -13234,7 +13264,7 @@
         <v>1.0429999999999999</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>125</v>
       </c>
@@ -13242,7 +13272,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>232</v>
       </c>
@@ -13250,7 +13280,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>28</v>
       </c>
@@ -13258,7 +13288,7 @@
         <v>1.036</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>116</v>
       </c>
@@ -13266,7 +13296,7 @@
         <v>1.036</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>121</v>
       </c>
@@ -13274,7 +13304,7 @@
         <v>1.036</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>152</v>
       </c>
@@ -13282,7 +13312,7 @@
         <v>1.036</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>238</v>
       </c>
@@ -13290,7 +13320,7 @@
         <v>1.036</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>241</v>
       </c>
@@ -13298,7 +13328,7 @@
         <v>1.036</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>180</v>
       </c>
@@ -13306,7 +13336,7 @@
         <v>1.034</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>124</v>
       </c>
@@ -13314,7 +13344,7 @@
         <v>1.0329999999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>184</v>
       </c>
@@ -13322,7 +13352,7 @@
         <v>1.0329999999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>209</v>
       </c>
@@ -13330,7 +13360,7 @@
         <v>1.0269999999999999</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>300</v>
       </c>
@@ -13338,7 +13368,7 @@
         <v>1.0269999999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>86</v>
       </c>
@@ -13346,7 +13376,7 @@
         <v>1.024</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>94</v>
       </c>
@@ -13354,7 +13384,7 @@
         <v>1.0229999999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>144</v>
       </c>
@@ -13362,7 +13392,7 @@
         <v>1.0229999999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>325</v>
       </c>
@@ -13370,7 +13400,7 @@
         <v>1.0229999999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>325</v>
       </c>
@@ -13378,7 +13408,7 @@
         <v>1.0229999999999999</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>178</v>
       </c>
@@ -13386,7 +13416,7 @@
         <v>1.022</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>321</v>
       </c>
@@ -13394,7 +13424,7 @@
         <v>1.022</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>14</v>
       </c>
@@ -13402,7 +13432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>57</v>
       </c>
@@ -13410,7 +13440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>64</v>
       </c>
@@ -13418,7 +13448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>74</v>
       </c>
@@ -13426,7 +13456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>79</v>
       </c>
@@ -13434,7 +13464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>89</v>
       </c>
@@ -13442,7 +13472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>111</v>
       </c>
@@ -13450,7 +13480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>143</v>
       </c>
@@ -13458,7 +13488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>148</v>
       </c>
@@ -13466,7 +13496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>154</v>
       </c>
@@ -13474,7 +13504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>187</v>
       </c>
@@ -13482,7 +13512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>205</v>
       </c>
@@ -13490,7 +13520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>248</v>
       </c>
@@ -13498,7 +13528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>267</v>
       </c>
@@ -13506,7 +13536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>281</v>
       </c>
@@ -13514,7 +13544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>283</v>
       </c>
@@ -13522,7 +13552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>295</v>
       </c>
@@ -13530,7 +13560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>302</v>
       </c>
@@ -13538,7 +13568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>311</v>
       </c>
@@ -13546,7 +13576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>311</v>
       </c>
@@ -13554,7 +13584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>328</v>
       </c>
@@ -13562,7 +13592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>311</v>
       </c>
@@ -13570,7 +13600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>342</v>
       </c>
@@ -13578,7 +13608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>350</v>
       </c>
@@ -13586,7 +13616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>342</v>
       </c>
@@ -13594,7 +13624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>328</v>
       </c>

--- a/iteration3/job_descriptions_ranks_final.xlsx
+++ b/iteration3/job_descriptions_ranks_final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -9523,9 +9523,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400"/>
+              <a:defRPr sz="2000"/>
             </a:pPr>
-            <a:endParaRPr lang="he-IL" sz="1400"/>
+            <a:endParaRPr lang="he-IL" sz="2000"/>
           </a:p>
         </cx:txPr>
       </cx:axis>
@@ -10414,17 +10414,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" zoomScale="44" workbookViewId="0">
-      <selection activeCell="AJ375" sqref="AJ375"/>
+    <sheetView tabSelected="1" topLeftCell="A295" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AL375" sqref="AL375"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.3984375" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>1.571</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>313</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>266</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>338</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>1.4139999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>352</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>1.409</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>1.407</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>282</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>1.407</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>208</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>1.381</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>140</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>1.379</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>1.3640000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>165</v>
       </c>
@@ -10536,7 +10536,7 @@
         <v>1.361</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>1.357</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>182</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>1.357</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>1.355</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -10576,7 +10576,7 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>193</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>203</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>211</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>276</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>1.333</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>1.3180000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>335</v>
       </c>
@@ -10632,7 +10632,7 @@
         <v>1.3180000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>1.3160000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>270</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>1.3160000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>261</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>1.3120000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>294</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>1.3080000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>348</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>1.3080000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>177</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>202</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -10712,7 +10712,7 @@
         <v>1.294</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>1.286</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>1.286</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>1.286</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>296</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>1.286</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>297</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>1.286</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>1.286</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>351</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>1.286</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>1.278</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>1.278</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>1.2729999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>310</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>1.2729999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>334</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>1.2729999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>113</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>186</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>307</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>35</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>324</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>307</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>324</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>35</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>324</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>324</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>324</v>
       </c>
@@ -10928,7 +10928,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>324</v>
       </c>
@@ -10944,7 +10944,7 @@
         <v>1.2669999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>107</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>1.2629999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>135</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>1.2629999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>167</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>1.2629999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>332</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>1.2629999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>316</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>1.258</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -10992,7 +10992,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>47</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>99</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>199</v>
       </c>
@@ -11032,7 +11032,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>219</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>284</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>298</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>47</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>47</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>260</v>
       </c>
@@ -11080,7 +11080,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>349</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>117</v>
       </c>
@@ -11096,7 +11096,7 @@
         <v>1.238</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>191</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>1.238</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>256</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>1.2350000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>278</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>1.2350000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>67</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>1.2310000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>69</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>1.2310000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>131</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>1.2310000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>141</v>
       </c>
@@ -11152,7 +11152,7 @@
         <v>1.2310000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>166</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>1.2310000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>327</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>1.2310000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>1.2270000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>185</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>1.2270000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>1.2250000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>158</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>1.222</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>240</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>1.222</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>1.2170000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>126</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>1.2170000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>162</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>1.2170000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>224</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>1.2170000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>301</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>1.2170000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>36</v>
       </c>
@@ -11256,7 +11256,7 @@
         <v>1.214</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>78</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>1.214</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>322</v>
       </c>
@@ -11272,7 +11272,7 @@
         <v>1.214</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>322</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>1.214</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>322</v>
       </c>
@@ -11288,7 +11288,7 @@
         <v>1.214</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>322</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>1.214</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>163</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>1.208</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>151</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>1.206</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>53</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>134</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>160</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>174</v>
       </c>
@@ -11352,7 +11352,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>198</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>214</v>
       </c>
@@ -11368,7 +11368,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>245</v>
       </c>
@@ -11376,7 +11376,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>268</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>312</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>346</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>119</v>
       </c>
@@ -11408,7 +11408,7 @@
         <v>1.194</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>59</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>1.1919999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>72</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>1.1919999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>23</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>336</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>1.1890000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>65</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>170</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>200</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>220</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>234</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>329</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>329</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>303</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>1.1850000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>303</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>1.1850000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>303</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>1.1850000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>303</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>1.1850000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>303</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>1.1850000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>26</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>1.1839999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>192</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>1.1839999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>41</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>1.1819999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>1.1759999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>61</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>1.1759999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>206</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>1.1759999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>239</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>1.1759999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>249</v>
       </c>
@@ -11608,7 +11608,7 @@
         <v>1.1759999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>309</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>1.1759999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>317</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>1.1759999999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>123</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>265</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>341</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>231</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>1.1719999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>243</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>1.1719999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>5</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>15</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>66</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>102</v>
       </c>
@@ -11696,7 +11696,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>145</v>
       </c>
@@ -11704,7 +11704,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>223</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>259</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>286</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>340</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>251</v>
       </c>
@@ -11744,7 +11744,7 @@
         <v>1.163</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>29</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>1.161</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>139</v>
       </c>
@@ -11760,7 +11760,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>1.159</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>34</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>1.1579999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>263</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>1.1579999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>331</v>
       </c>
@@ -11792,7 +11792,7 @@
         <v>1.1579999999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>331</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>1.1579999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>196</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>1.1559999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>225</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>1.1559999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>97</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>1.1539999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>136</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>1.1539999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>235</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>1.1539999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>237</v>
       </c>
@@ -11848,7 +11848,7 @@
         <v>1.1539999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>339</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>1.1539999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>45</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>87</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>45</v>
       </c>
@@ -11880,7 +11880,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>45</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>318</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>45</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>17</v>
       </c>
@@ -11912,7 +11912,7 @@
         <v>1.1479999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>306</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>1.1459999999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>42</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>52</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>60</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>73</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>82</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>84</v>
       </c>
@@ -11968,7 +11968,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>147</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>175</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -11992,7 +11992,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>228</v>
       </c>
@@ -12000,7 +12000,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>42</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>305</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>42</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>42</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>305</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>42</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>305</v>
       </c>
@@ -12056,7 +12056,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>305</v>
       </c>
@@ -12064,7 +12064,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>343</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>305</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>305</v>
       </c>
@@ -12088,7 +12088,7 @@
         <v>1.143</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>106</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>1.1379999999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>127</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>1.1359999999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>133</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>1.1359999999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>1.1359999999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>221</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>1.1359999999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>269</v>
       </c>
@@ -12136,7 +12136,7 @@
         <v>1.1359999999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>83</v>
       </c>
@@ -12144,7 +12144,7 @@
         <v>1.133</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>101</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>1.133</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>103</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>1.133</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>244</v>
       </c>
@@ -12168,7 +12168,7 @@
         <v>1.133</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>274</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>1.133</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>288</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>1.133</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>304</v>
       </c>
@@ -12192,7 +12192,7 @@
         <v>1.133</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>304</v>
       </c>
@@ -12200,7 +12200,7 @@
         <v>1.133</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>137</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>213</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>91</v>
       </c>
@@ -12224,7 +12224,7 @@
         <v>1.1279999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>12</v>
       </c>
@@ -12232,7 +12232,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>183</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>189</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>197</v>
       </c>
@@ -12256,7 +12256,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -12264,7 +12264,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>275</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>279</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>287</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>16</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>37</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>146</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>157</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>146</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>299</v>
       </c>
@@ -12336,7 +12336,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>345</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>345</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>68</v>
       </c>
@@ -12360,7 +12360,7 @@
         <v>1.1180000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>176</v>
       </c>
@@ -12368,7 +12368,7 @@
         <v>1.1180000000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>80</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>1.1160000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>128</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>1.115</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>222</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>1.115</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>277</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>1.115</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>18</v>
       </c>
@@ -12408,7 +12408,7 @@
         <v>1.1140000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>19</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>1.1140000000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>105</v>
       </c>
@@ -12424,7 +12424,7 @@
         <v>1.1140000000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>201</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>1.1140000000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>323</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>1.1140000000000001</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>19</v>
       </c>
@@ -12448,7 +12448,7 @@
         <v>1.1140000000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>95</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>190</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>271</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>320</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>337</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>347</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>320</v>
       </c>
@@ -12504,7 +12504,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>215</v>
       </c>
@@ -12512,7 +12512,7 @@
         <v>1.1060000000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>169</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>1.105</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>30</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>1.103</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>31</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>1.103</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>51</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>1.103</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>30</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>1.103</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>44</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>109</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>138</v>
       </c>
@@ -12576,7 +12576,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>194</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>216</v>
       </c>
@@ -12592,7 +12592,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>250</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>285</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>129</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>1.097</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>246</v>
       </c>
@@ -12624,7 +12624,7 @@
         <v>1.097</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>293</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>1.097</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>218</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>1.095</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>115</v>
       </c>
@@ -12648,7 +12648,7 @@
         <v>1.0940000000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>161</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>1.0940000000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>108</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>1.091</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>132</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>1.091</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>242</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>1.091</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>315</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>1.091</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>153</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>1.087</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>257</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>1.087</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>262</v>
       </c>
@@ -12712,7 +12712,7 @@
         <v>1.087</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>273</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>1.087</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>25</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>1.0860000000000001</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>114</v>
       </c>
@@ -12736,7 +12736,7 @@
         <v>1.0860000000000001</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>227</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>1.0860000000000001</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>71</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>120</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>122</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>168</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>252</v>
       </c>
@@ -12784,7 +12784,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>255</v>
       </c>
@@ -12792,7 +12792,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>258</v>
       </c>
@@ -12800,7 +12800,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>280</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>233</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>1.081</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>63</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>172</v>
       </c>
@@ -12832,7 +12832,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>264</v>
       </c>
@@ -12840,7 +12840,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>330</v>
       </c>
@@ -12848,7 +12848,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>164</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>1.079</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>179</v>
       </c>
@@ -12864,7 +12864,7 @@
         <v>1.077</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>247</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>1.077</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>272</v>
       </c>
@@ -12880,7 +12880,7 @@
         <v>1.077</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>289</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>1.077</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>344</v>
       </c>
@@ -12896,7 +12896,7 @@
         <v>1.077</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>155</v>
       </c>
@@ -12904,7 +12904,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>150</v>
       </c>
@@ -12912,7 +12912,7 @@
         <v>1.073</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>49</v>
       </c>
@@ -12920,7 +12920,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>33</v>
       </c>
@@ -12928,7 +12928,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>118</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>90</v>
       </c>
@@ -12944,7 +12944,7 @@
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>156</v>
       </c>
@@ -12952,7 +12952,7 @@
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>226</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>226</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>81</v>
       </c>
@@ -12976,7 +12976,7 @@
         <v>1.0649999999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>70</v>
       </c>
@@ -12984,7 +12984,7 @@
         <v>1.0620000000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>93</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>1.0609999999999999</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>159</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>1.0609999999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>210</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>1.0609999999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>22</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>1.0589999999999999</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>173</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>1.0589999999999999</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>181</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>1.0589999999999999</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>291</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>1.0589999999999999</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>326</v>
       </c>
@@ -13048,7 +13048,7 @@
         <v>1.0569999999999999</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>27</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>1.056</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>88</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>1.056</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>96</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>1.056</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>98</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>1.054</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>48</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>1.0529999999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>207</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>1.0529999999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>290</v>
       </c>
@@ -13104,7 +13104,7 @@
         <v>1.0529999999999999</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>333</v>
       </c>
@@ -13112,7 +13112,7 @@
         <v>1.0529999999999999</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>40</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>1.0509999999999999</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>10</v>
       </c>
@@ -13128,7 +13128,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>142</v>
       </c>
@@ -13136,7 +13136,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>319</v>
       </c>
@@ -13144,7 +13144,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>10</v>
       </c>
@@ -13152,7 +13152,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>10</v>
       </c>
@@ -13160,7 +13160,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>10</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>21</v>
       </c>
@@ -13176,7 +13176,7 @@
         <v>1.048</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>85</v>
       </c>
@@ -13184,7 +13184,7 @@
         <v>1.048</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>217</v>
       </c>
@@ -13192,7 +13192,7 @@
         <v>1.048</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>292</v>
       </c>
@@ -13200,7 +13200,7 @@
         <v>1.048</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>314</v>
       </c>
@@ -13208,7 +13208,7 @@
         <v>1.048</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>39</v>
       </c>
@@ -13216,7 +13216,7 @@
         <v>1.0469999999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>308</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>1.0469999999999999</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>204</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>1.0449999999999999</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>171</v>
       </c>
@@ -13240,7 +13240,7 @@
         <v>1.0429999999999999</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>236</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>1.0429999999999999</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>253</v>
       </c>
@@ -13256,7 +13256,7 @@
         <v>1.0429999999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>254</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>1.0429999999999999</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>125</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>232</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>28</v>
       </c>
@@ -13288,7 +13288,7 @@
         <v>1.036</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>116</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>1.036</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>121</v>
       </c>
@@ -13304,7 +13304,7 @@
         <v>1.036</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>152</v>
       </c>
@@ -13312,7 +13312,7 @@
         <v>1.036</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>238</v>
       </c>
@@ -13320,7 +13320,7 @@
         <v>1.036</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>241</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>1.036</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>180</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>1.034</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>124</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>1.0329999999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>184</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>1.0329999999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>209</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>1.0269999999999999</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>300</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>1.0269999999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>86</v>
       </c>
@@ -13376,7 +13376,7 @@
         <v>1.024</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>94</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>1.0229999999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>144</v>
       </c>
@@ -13392,7 +13392,7 @@
         <v>1.0229999999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>325</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>1.0229999999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>325</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>1.0229999999999999</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>178</v>
       </c>
@@ -13416,7 +13416,7 @@
         <v>1.022</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>321</v>
       </c>
@@ -13424,7 +13424,7 @@
         <v>1.022</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>14</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>57</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>64</v>
       </c>
@@ -13448,7 +13448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>74</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>79</v>
       </c>
@@ -13464,7 +13464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>89</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>111</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>143</v>
       </c>
@@ -13488,7 +13488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>148</v>
       </c>
@@ -13496,7 +13496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>154</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>187</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>205</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>248</v>
       </c>
@@ -13528,7 +13528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>267</v>
       </c>
@@ -13536,7 +13536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>281</v>
       </c>
@@ -13544,7 +13544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>283</v>
       </c>
@@ -13552,7 +13552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>295</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>302</v>
       </c>
@@ -13568,7 +13568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>311</v>
       </c>
@@ -13576,7 +13576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>311</v>
       </c>
@@ -13584,7 +13584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>328</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>311</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>342</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>350</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>342</v>
       </c>
@@ -13624,7 +13624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>328</v>
       </c>
